--- a/src/document/ProductList.xlsx
+++ b/src/document/ProductList.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\etrend-draft\src\document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17565" windowHeight="5415"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17568" windowHeight="5412"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -156,24 +161,22 @@
     <t>Solid Surface Countertop</t>
   </si>
   <si>
+    <t>Smart Building System</t>
+  </si>
+  <si>
+    <t>VRV Home Central System</t>
+  </si>
+  <si>
+    <t>Justime</t>
+  </si>
+  <si>
     <t>Dupont Corian</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Justime</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Smart Building System</t>
-  </si>
-  <si>
-    <t>VRV Home Central System</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -592,32 +595,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" thickBot="1">
+    <row r="1" spans="1:8" ht="16.2" thickBot="1">
       <c r="B1" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C1" s="13"/>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -625,7 +628,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -640,7 +643,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -648,17 +651,17 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5">
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -672,7 +675,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5">
+    <row r="8" spans="1:8">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -680,7 +683,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>42</v>
@@ -690,7 +693,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="16.5">
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -704,12 +707,12 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>2</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="6" t="s">
@@ -718,7 +721,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -732,7 +735,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>4</v>
       </c>
@@ -749,7 +752,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -766,7 +769,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8">
       <c r="A15" s="2">
         <v>6</v>
       </c>
@@ -780,7 +783,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8">
       <c r="A16" s="2">
         <v>7</v>
       </c>
@@ -792,7 +795,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="16.5">
+    <row r="17" spans="1:6">
       <c r="A17" s="2">
         <v>8</v>
       </c>
@@ -806,7 +809,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="16.5">
+    <row r="18" spans="1:6">
       <c r="A18" s="2">
         <v>9</v>
       </c>
@@ -820,7 +823,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="16.5">
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
         <v>10</v>
       </c>
@@ -834,7 +837,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="16.5">
+    <row r="20" spans="1:6">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -842,7 +845,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="16.5">
+    <row r="21" spans="1:6">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -850,7 +853,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="16.5">
+    <row r="22" spans="1:6">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>43</v>
@@ -860,7 +863,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="16.5">
+    <row r="23" spans="1:6">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -874,7 +877,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="16.5">
+    <row r="24" spans="1:6">
       <c r="A24" s="3">
         <v>2</v>
       </c>
@@ -888,7 +891,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="16.5">
+    <row r="25" spans="1:6">
       <c r="A25" s="3">
         <v>3</v>
       </c>
@@ -902,7 +905,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="16.5">
+    <row r="26" spans="1:6">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="2"/>
@@ -910,7 +913,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="16.5">
+    <row r="27" spans="1:6">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -928,12 +931,12 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="16.5">
+    <row r="29" spans="1:6">
       <c r="A29" s="3">
         <v>1</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="6" t="s">
@@ -942,7 +945,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="16.5">
+    <row r="30" spans="1:6">
       <c r="A30" s="3">
         <v>2</v>
       </c>
@@ -956,7 +959,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" ht="16.5">
+    <row r="31" spans="1:6">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="2"/>
@@ -964,7 +967,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="16.5">
+    <row r="32" spans="1:6">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -972,7 +975,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:7" ht="16.5">
+    <row r="33" spans="1:7">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>12</v>
@@ -982,7 +985,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:7" ht="16.5">
+    <row r="34" spans="1:7">
       <c r="A34" s="3">
         <v>1</v>
       </c>
@@ -997,7 +1000,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16.5">
+    <row r="35" spans="1:7">
       <c r="A35" s="3">
         <v>2</v>
       </c>
@@ -1012,7 +1015,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="16.5">
+    <row r="36" spans="1:7">
       <c r="A36" s="3">
         <v>3</v>
       </c>
@@ -1027,7 +1030,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16.5">
+    <row r="37" spans="1:7">
       <c r="A37" s="3">
         <v>4</v>
       </c>
@@ -1038,7 +1041,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="16.5">
+    <row r="41" spans="1:7">
       <c r="B41" s="9" t="s">
         <v>36</v>
       </c>
@@ -1046,13 +1049,13 @@
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:7" ht="16.5">
+    <row r="42" spans="1:7">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="16.5">
+    <row r="43" spans="1:7">
       <c r="B43" s="10" t="s">
         <v>35</v>
       </c>
@@ -1060,7 +1063,7 @@
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:7" ht="16.5">
+    <row r="44" spans="1:7">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
